--- a/archivoEx.xlsx
+++ b/archivoEx.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>FECHA Y HORA</t>
   </si>
@@ -38,7 +38,7 @@
     <t>ENTRADA</t>
   </si>
   <si>
-    <t>2021-04-18 11:03:40.0</t>
+    <t>2021-04-18 16:03:40.0</t>
   </si>
   <si>
     <t>Camilo Perez</t>
@@ -56,7 +56,7 @@
     <t>205-55-16</t>
   </si>
   <si>
-    <t>2021-04-29 11:49:13.0</t>
+    <t>2021-04-29 16:49:13.0</t>
   </si>
   <si>
     <t>Mario Ramirez</t>
@@ -74,7 +74,7 @@
     <t>225-50-17</t>
   </si>
   <si>
-    <t>2021-04-29 17:22:49.0</t>
+    <t>2021-04-29 22:22:49.0</t>
   </si>
   <si>
     <t>FV-067TC</t>
@@ -83,7 +83,7 @@
     <t>dsddd</t>
   </si>
   <si>
-    <t>2021-04-30 11:47:24.0</t>
+    <t>2021-04-30 16:47:24.0</t>
   </si>
   <si>
     <t>Sandra Ospina</t>
@@ -96,6 +96,33 @@
   </si>
   <si>
     <t>1215-50-17</t>
+  </si>
+  <si>
+    <t>2021-05-06 15:48:50.0</t>
+  </si>
+  <si>
+    <t>vvvv</t>
+  </si>
+  <si>
+    <t>dsfsdf</t>
+  </si>
+  <si>
+    <t>34343</t>
+  </si>
+  <si>
+    <t>2021-05-06 09:48:34.0</t>
+  </si>
+  <si>
+    <t>Mario Castro</t>
+  </si>
+  <si>
+    <t>wewew</t>
+  </si>
+  <si>
+    <t>wsdss</t>
+  </si>
+  <si>
+    <t>2212</t>
   </si>
 </sst>
 </file>
@@ -140,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -276,6 +303,58 @@
         <v>1000000.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>850000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1000000.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
